--- a/StudyRoomProj/DataTable/TimeTable.xlsx
+++ b/StudyRoomProj/DataTable/TimeTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmdgh\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmdgh\Desktop\nusang\StudyRoomProj\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F3D2AAA-DF73-479E-8026-34836CC1F051}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210FE75D-FC9F-4387-986E-0FEBD9549902}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F8D6C836-43C2-45DD-9539-A9B2039B9615}"/>
+    <workbookView xWindow="336" yWindow="540" windowWidth="17280" windowHeight="8964" xr2:uid="{F8D6C836-43C2-45DD-9539-A9B2039B9615}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,11 +41,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">       price</t>
+    <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id</t>
+    <t>price</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -413,14 +413,14 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -429,7 +429,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">

--- a/StudyRoomProj/DataTable/TimeTable.xlsx
+++ b/StudyRoomProj/DataTable/TimeTable.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmdgh\Desktop\nusang\StudyRoomProj\DataTable\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210FE75D-FC9F-4387-986E-0FEBD9549902}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{161D3F94-E425-49E9-ABC5-8F202A29B82E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="336" yWindow="540" windowWidth="17280" windowHeight="8964" xr2:uid="{F8D6C836-43C2-45DD-9539-A9B2039B9615}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="17310" windowHeight="12480" xr2:uid="{F8D6C836-43C2-45DD-9539-A9B2039B9615}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:K29"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -413,12 +409,12 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -432,7 +428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -446,7 +442,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -460,7 +456,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -474,7 +470,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -488,7 +484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -502,7 +498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -516,7 +512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -530,7 +526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -544,7 +540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -558,7 +554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -572,7 +568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -586,7 +582,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -600,7 +596,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -617,6 +613,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/StudyRoomProj/DataTable/TimeTable.xlsx
+++ b/StudyRoomProj/DataTable/TimeTable.xlsx
@@ -3,45 +3,39 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{161D3F94-E425-49E9-ABC5-8F202A29B82E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmdgh\Desktop\nusang\StudyRoomProj\DataTable\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33ACC9A6-2F93-4A47-858D-C86CCBCC0AE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="17310" windowHeight="12480" xr2:uid="{F8D6C836-43C2-45DD-9539-A9B2039B9615}"/>
+    <workbookView xWindow="5484" yWindow="1272" windowWidth="17280" windowHeight="8964" xr2:uid="{F8D6C836-43C2-45DD-9539-A9B2039B9615}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:K29"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>start</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -406,127 +400,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC0B38E0-C7E1-4C5E-A5C7-A06AA9C2C3A3}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>7</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>9</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>11</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8">
-        <v>13</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -534,79 +504,182 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <v>15</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10">
-        <v>17</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11">
-        <v>19</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C12">
-        <v>21</v>
-      </c>
-      <c r="D12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C13">
-        <v>23</v>
-      </c>
-      <c r="D13">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
+        <v>19</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>21</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>22</v>
+      </c>
+      <c r="C17">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>23</v>
+      </c>
+      <c r="C18">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
         <v>24</v>
       </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
+      <c r="C19">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="C25">
         <v>3000</v>
       </c>
     </row>

--- a/StudyRoomProj/DataTable/TimeTable.xlsx
+++ b/StudyRoomProj/DataTable/TimeTable.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmdgh\Desktop\nusang\StudyRoomProj\DataTable\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33ACC9A6-2F93-4A47-858D-C86CCBCC0AE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="5484" yWindow="1272" windowWidth="17280" windowHeight="8964" xr2:uid="{F8D6C836-43C2-45DD-9539-A9B2039B9615}"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="13845" windowHeight="4920"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +37,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -392,23 +387,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC0B38E0-C7E1-4C5E-A5C7-A06AA9C2C3A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -419,7 +414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -430,7 +425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -441,7 +436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -452,7 +447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -463,7 +458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -474,7 +469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -485,7 +480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -496,7 +491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -507,7 +502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -518,7 +513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -529,7 +524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -540,7 +535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -551,7 +546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -562,7 +557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -573,7 +568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -584,7 +579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -595,7 +590,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -606,7 +601,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -617,7 +612,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -628,7 +623,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -639,7 +634,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
@@ -650,7 +645,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
@@ -661,7 +656,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -672,7 +667,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
